--- a/python_tools/src/道具.xlsx
+++ b/python_tools/src/道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nox\Documents\GitHub\pokeemerald-expansion-Chinese\python_tools\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E8EB0-CC25-4591-8441-E7BD7218289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55662AF2-03C6-401C-BDB5-30AB98BBABE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="4067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="4065">
   <si>
     <t>道具</t>
   </si>
@@ -11358,9 +11358,6 @@
     <t>快龙进化石</t>
   </si>
   <si>
-    <t>让快龙携带后，\n在战斗时能超级进\n化的超级石。</t>
-  </si>
-  <si>
     <t>COMPOUND_STRING("让快龙携带后，\n在战斗时能超级进\n化的超级石。")</t>
   </si>
   <si>
@@ -11497,50 +11494,6 @@
   </si>
   <si>
     <t>COMPOUND_STRING("让列阵兵携带后，\n在战斗时能超级进\n化的超级石。")</t>
-  </si>
-  <si>
-    <t>让宝石海星携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让龙头地鼠携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让头巾混混携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让布里卡隆携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让妖火红狐携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让甲贺忍蛙携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让龟足巨铠携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让摔角鹰人携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让基格尔德携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让麻麻鳗鱼王携带\n后，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让水晶灯火灵携带\n后，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>风铃铃进化石</t>
@@ -11604,9 +11557,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>让雷丘携带后，\n在战斗时能超级进\n化的超级石。</t>
-  </si>
-  <si>
     <t>让风铃铃携带后，\n在战斗时能超级进\n化的超级石。</t>
   </si>
   <si>
@@ -11808,50 +11758,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>让烈咬陆鲨携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让路卡利欧携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让泥偶巨人携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让超能妙喵携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让好胜毛蟹携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让具甲武者携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让玛机雅娜携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让阿勃梭鲁携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让席多蓝恩携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让捷拉奥拉携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让达克莱伊携带后\n，在战斗时能超级进\n化的超级石。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>COMPOUND_STRING("让席多蓝恩携带后\n，在战斗时能超级进\n化的超级石。")</t>
   </si>
   <si>
@@ -12281,6 +12187,89 @@
   </si>
   <si>
     <t>秘传学习器08</t>
+  </si>
+  <si>
+    <t>让麻麻鳗鱼王携带\n后，在战斗时能超\n级进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让水晶灯火灵携带\n后，在战斗时能超\n级进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让龙头地鼠携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让头巾混混携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让布里卡隆携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让妖火红狐携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让甲贺忍蛙携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让龟足巨铠携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让摔角鹰人携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让基格尔德携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让席多蓝恩携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让达克莱伊携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让捷拉奥拉携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让阿勃梭鲁携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让泥偶巨人携带后\n，在战斗时能超级\n进化的超级石。</t>
+  </si>
+  <si>
+    <t>让超能妙喵携带后\n，在战斗时能超级\n进化的超级石。</t>
+  </si>
+  <si>
+    <t>让好胜毛蟹携带后\n，在战斗时能超级\n进化的超级石。</t>
+  </si>
+  <si>
+    <t>让具甲武者携带后\n，在战斗时能超级\n进化的超级石。</t>
+  </si>
+  <si>
+    <t>让玛机雅娜携带后\n，在战斗时能超级\n进化的超级石。</t>
+  </si>
+  <si>
+    <t>让宝石海星携带后\n，在战斗时能超级\n进化的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让快龙携带后，在\n战斗时能超级进化\n的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让雷丘携带后，在\n战斗时能超级进化\n的超级石。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12611,8 +12600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D724" sqref="D724"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F375" sqref="F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -13268,11 +13257,11 @@
         <v>177</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3939</v>
+        <v>3915</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>3940</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13430,11 +13419,11 @@
         <v>219</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3941</v>
+        <v>3917</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>3942</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -13646,11 +13635,11 @@
         <v>276</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>3943</v>
+        <v>3919</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
-        <v>3944</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -18828,11 +18817,11 @@
         <v>3772</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>3821</v>
+        <v>4062</v>
       </c>
       <c r="E344" s="1"/>
       <c r="F344" s="1" t="s">
-        <v>3859</v>
+        <v>3846</v>
       </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
@@ -18854,11 +18843,11 @@
         <v>3773</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>3774</v>
+        <v>4063</v>
       </c>
       <c r="E345" s="1"/>
       <c r="F345" s="1" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
@@ -18877,14 +18866,14 @@
         <v>3717</v>
       </c>
       <c r="C346" s="1" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>3776</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>3777</v>
       </c>
       <c r="E346" s="1"/>
       <c r="F346" s="1" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
@@ -18903,14 +18892,14 @@
         <v>3718</v>
       </c>
       <c r="C347" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="D347" s="1" t="s">
         <v>3779</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>3780</v>
       </c>
       <c r="E347" s="1"/>
       <c r="F347" s="1" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -18929,14 +18918,14 @@
         <v>3719</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>3782</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>3783</v>
       </c>
       <c r="E348" s="1"/>
       <c r="F348" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
@@ -18955,14 +18944,14 @@
         <v>3720</v>
       </c>
       <c r="C349" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>3785</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>3786</v>
       </c>
       <c r="E349" s="1"/>
       <c r="F349" s="1" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
@@ -18981,14 +18970,14 @@
         <v>3721</v>
       </c>
       <c r="C350" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D350" s="1" t="s">
         <v>3788</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>3789</v>
       </c>
       <c r="E350" s="1"/>
       <c r="F350" s="1" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
@@ -19007,14 +18996,14 @@
         <v>3722</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>3822</v>
+        <v>4045</v>
       </c>
       <c r="E351" s="1"/>
       <c r="F351" s="1" t="s">
-        <v>3860</v>
+        <v>3847</v>
       </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
@@ -19033,14 +19022,14 @@
         <v>3723</v>
       </c>
       <c r="C352" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>3792</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>3793</v>
       </c>
       <c r="E352" s="1"/>
       <c r="F352" s="1" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -19059,14 +19048,14 @@
         <v>3724</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>3823</v>
+        <v>4046</v>
       </c>
       <c r="E353" s="1"/>
       <c r="F353" s="1" t="s">
-        <v>3861</v>
+        <v>3848</v>
       </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
@@ -19085,14 +19074,14 @@
         <v>3725</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>3830</v>
+        <v>4043</v>
       </c>
       <c r="E354" s="1"/>
       <c r="F354" s="1" t="s">
-        <v>3862</v>
+        <v>3849</v>
       </c>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -19111,14 +19100,14 @@
         <v>3726</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>3831</v>
+        <v>4044</v>
       </c>
       <c r="E355" s="1"/>
       <c r="F355" s="1" t="s">
-        <v>3863</v>
+        <v>3850</v>
       </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
@@ -19137,14 +19126,14 @@
         <v>3727</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>3824</v>
+        <v>4047</v>
       </c>
       <c r="E356" s="1"/>
       <c r="F356" s="1" t="s">
-        <v>3864</v>
+        <v>3851</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
@@ -19163,14 +19152,14 @@
         <v>3728</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>3825</v>
+        <v>4048</v>
       </c>
       <c r="E357" s="1"/>
       <c r="F357" s="1" t="s">
-        <v>3865</v>
+        <v>3852</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -19189,14 +19178,14 @@
         <v>3729</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>3826</v>
+        <v>4049</v>
       </c>
       <c r="E358" s="1"/>
       <c r="F358" s="1" t="s">
-        <v>3866</v>
+        <v>3853</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
@@ -19215,14 +19204,14 @@
         <v>3730</v>
       </c>
       <c r="C359" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>3801</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>3802</v>
       </c>
       <c r="E359" s="1"/>
       <c r="F359" s="1" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
@@ -19238,17 +19227,17 @@
         <v>3755</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>3938</v>
+        <v>3914</v>
       </c>
       <c r="C360" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>3804</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>3805</v>
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="1" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
@@ -19267,14 +19256,14 @@
         <v>3731</v>
       </c>
       <c r="C361" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>3807</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>3808</v>
       </c>
       <c r="E361" s="1"/>
       <c r="F361" s="1" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
@@ -19290,17 +19279,17 @@
         <v>3757</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>3914</v>
+        <v>3901</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>3827</v>
+        <v>4050</v>
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="1" t="s">
-        <v>3867</v>
+        <v>3854</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -19319,14 +19308,14 @@
         <v>3732</v>
       </c>
       <c r="C363" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>3811</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>3812</v>
       </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -19345,14 +19334,14 @@
         <v>3733</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>3828</v>
+        <v>4051</v>
       </c>
       <c r="E364" s="1"/>
       <c r="F364" s="1" t="s">
-        <v>3868</v>
+        <v>3855</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
@@ -19371,14 +19360,14 @@
         <v>3734</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>3829</v>
+        <v>4052</v>
       </c>
       <c r="E365" s="1"/>
       <c r="F365" s="1" t="s">
-        <v>3869</v>
+        <v>3856</v>
       </c>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
@@ -19397,14 +19386,14 @@
         <v>3735</v>
       </c>
       <c r="C366" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D366" s="1" t="s">
         <v>3816</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>3817</v>
       </c>
       <c r="E366" s="1"/>
       <c r="F366" s="1" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
@@ -19423,14 +19412,14 @@
         <v>3736</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>3851</v>
+        <v>3839</v>
       </c>
       <c r="E367" s="1"/>
       <c r="F367" s="1" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
@@ -19443,344 +19432,344 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>3896</v>
+        <v>3883</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>3877</v>
+        <v>3864</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>3843</v>
+        <v>3831</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>3924</v>
+        <v>4053</v>
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1" t="s">
-        <v>3927</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>3897</v>
+        <v>3884</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>3878</v>
+        <v>3865</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>3844</v>
+        <v>3832</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>3926</v>
+        <v>4054</v>
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1" t="s">
-        <v>3928</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>3898</v>
+        <v>3885</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>3879</v>
+        <v>3866</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>3845</v>
+        <v>3833</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>3925</v>
+        <v>4055</v>
       </c>
       <c r="E370" s="1"/>
       <c r="F370" s="1" t="s">
-        <v>3929</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>3909</v>
+        <v>3896</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>3846</v>
+        <v>3834</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>3852</v>
+        <v>4064</v>
       </c>
       <c r="E371" s="1"/>
       <c r="F371" s="1" t="s">
-        <v>3870</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>3910</v>
+        <v>3897</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>3892</v>
+        <v>3879</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>3847</v>
+        <v>3835</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>3852</v>
+        <v>4064</v>
       </c>
       <c r="E372" s="1"/>
       <c r="F372" s="1" t="s">
-        <v>3870</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>3899</v>
+        <v>3886</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>3880</v>
+        <v>3867</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>3832</v>
+        <v>3820</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>3853</v>
+        <v>3840</v>
       </c>
       <c r="E373" s="1"/>
       <c r="F373" s="1" t="s">
-        <v>3871</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>3913</v>
+        <v>3900</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>3893</v>
+        <v>3880</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>3848</v>
+        <v>3836</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>3923</v>
+        <v>4056</v>
       </c>
       <c r="E374" s="1"/>
       <c r="F374" s="1" t="s">
-        <v>3930</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>3900</v>
+        <v>3887</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>3881</v>
+        <v>3868</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>3833</v>
+        <v>3821</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>3854</v>
+        <v>3841</v>
       </c>
       <c r="E375" s="1"/>
       <c r="F375" s="1" t="s">
-        <v>3872</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>3911</v>
+        <v>3898</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>3894</v>
+        <v>3881</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>3849</v>
+        <v>3837</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>3916</v>
+        <v>1576</v>
       </c>
       <c r="E376" s="1"/>
       <c r="F376" s="1" t="s">
-        <v>3931</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>3912</v>
+        <v>3899</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>3895</v>
+        <v>3882</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>3850</v>
+        <v>3838</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>3917</v>
+        <v>1581</v>
       </c>
       <c r="E377" s="1"/>
       <c r="F377" s="1" t="s">
-        <v>3932</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>3901</v>
+        <v>3888</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>3882</v>
+        <v>3869</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>3834</v>
+        <v>3822</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>3918</v>
+        <v>4057</v>
       </c>
       <c r="E378" s="1"/>
       <c r="F378" s="1" t="s">
-        <v>3933</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>3902</v>
+        <v>3889</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>3883</v>
+        <v>3870</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>3835</v>
+        <v>3823</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>3919</v>
+        <v>4058</v>
       </c>
       <c r="E379" s="1"/>
       <c r="F379" s="1" t="s">
-        <v>3934</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>3903</v>
+        <v>3890</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>3884</v>
+        <v>3871</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>3836</v>
+        <v>3824</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>3920</v>
+        <v>4059</v>
       </c>
       <c r="E380" s="1"/>
       <c r="F380" s="1" t="s">
-        <v>3935</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>3904</v>
+        <v>3891</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>3885</v>
+        <v>3872</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>3837</v>
+        <v>3825</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>3921</v>
+        <v>4060</v>
       </c>
       <c r="E381" s="1"/>
       <c r="F381" s="1" t="s">
-        <v>3936</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>3905</v>
+        <v>3892</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>3886</v>
+        <v>3873</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>3838</v>
+        <v>3826</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>3922</v>
+        <v>4061</v>
       </c>
       <c r="E382" s="1"/>
       <c r="F382" s="1" t="s">
-        <v>3937</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>3906</v>
+        <v>3893</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>3887</v>
+        <v>3874</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>3839</v>
+        <v>3827</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>3855</v>
+        <v>3842</v>
       </c>
       <c r="E383" s="1"/>
       <c r="F383" s="1" t="s">
-        <v>3873</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>3907</v>
+        <v>3894</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>3888</v>
+        <v>3875</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>3840</v>
+        <v>3828</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>3856</v>
+        <v>3843</v>
       </c>
       <c r="E384" s="1"/>
       <c r="F384" s="1" t="s">
-        <v>3874</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>3908</v>
+        <v>3895</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>3889</v>
+        <v>3876</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>3841</v>
+        <v>3829</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>3857</v>
+        <v>3844</v>
       </c>
       <c r="E385" s="1"/>
       <c r="F385" s="1" t="s">
-        <v>3875</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>3915</v>
+        <v>3902</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>3842</v>
+        <v>3830</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>3858</v>
+        <v>3845</v>
       </c>
       <c r="E386" s="1"/>
       <c r="F386" s="1" t="s">
-        <v>3876</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.25">
@@ -24189,7 +24178,7 @@
         <v>2767</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>3959</v>
+        <v>3935</v>
       </c>
       <c r="D630" s="1" t="s">
         <v>2768</v>
@@ -24207,10 +24196,10 @@
         <v>2771</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>3960</v>
+        <v>3936</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>3945</v>
+        <v>3921</v>
       </c>
       <c r="E631" s="2"/>
       <c r="F631" s="1" t="s">
@@ -24225,7 +24214,7 @@
         <v>2774</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>3961</v>
+        <v>3937</v>
       </c>
       <c r="D632" s="1" t="s">
         <v>2775</v>
@@ -24243,7 +24232,7 @@
         <v>2778</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>3962</v>
+        <v>3938</v>
       </c>
       <c r="D633" s="1" t="s">
         <v>2779</v>
@@ -24261,7 +24250,7 @@
         <v>2782</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>3963</v>
+        <v>3939</v>
       </c>
       <c r="D634" s="1" t="s">
         <v>2783</v>
@@ -24279,7 +24268,7 @@
         <v>2786</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>3964</v>
+        <v>3940</v>
       </c>
       <c r="D635" s="1" t="s">
         <v>2787</v>
@@ -24297,10 +24286,10 @@
         <v>2790</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>3965</v>
+        <v>3941</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>3946</v>
+        <v>3922</v>
       </c>
       <c r="E636" s="2"/>
       <c r="F636" s="1" t="s">
@@ -24315,7 +24304,7 @@
         <v>2793</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>3966</v>
+        <v>3942</v>
       </c>
       <c r="D637" s="1" t="s">
         <v>2794</v>
@@ -24333,7 +24322,7 @@
         <v>2797</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>3967</v>
+        <v>3943</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>2798</v>
@@ -24351,7 +24340,7 @@
         <v>2801</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>3968</v>
+        <v>3944</v>
       </c>
       <c r="D639" s="1" t="s">
         <v>2802</v>
@@ -24369,7 +24358,7 @@
         <v>2805</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>3969</v>
+        <v>3945</v>
       </c>
       <c r="D640" s="1" t="s">
         <v>2806</v>
@@ -24387,7 +24376,7 @@
         <v>2809</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>3970</v>
+        <v>3946</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>2810</v>
@@ -24405,7 +24394,7 @@
         <v>2813</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>3971</v>
+        <v>3947</v>
       </c>
       <c r="D642" s="1" t="s">
         <v>2814</v>
@@ -24423,7 +24412,7 @@
         <v>2817</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>3972</v>
+        <v>3948</v>
       </c>
       <c r="D643" s="1" t="s">
         <v>2818</v>
@@ -24441,7 +24430,7 @@
         <v>2821</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>3973</v>
+        <v>3949</v>
       </c>
       <c r="D644" s="1" t="s">
         <v>2822</v>
@@ -24459,10 +24448,10 @@
         <v>2825</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>3974</v>
+        <v>3950</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>3958</v>
+        <v>3934</v>
       </c>
       <c r="E645" s="2"/>
       <c r="F645" s="1" t="s">
@@ -24477,7 +24466,7 @@
         <v>2828</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>3975</v>
+        <v>3951</v>
       </c>
       <c r="D646" s="1" t="s">
         <v>2829</v>
@@ -24495,7 +24484,7 @@
         <v>2832</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>3976</v>
+        <v>3952</v>
       </c>
       <c r="D647" s="1" t="s">
         <v>2833</v>
@@ -24513,7 +24502,7 @@
         <v>2836</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>3977</v>
+        <v>3953</v>
       </c>
       <c r="D648" s="1" t="s">
         <v>2837</v>
@@ -24531,7 +24520,7 @@
         <v>2840</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>3978</v>
+        <v>3954</v>
       </c>
       <c r="D649" s="1" t="s">
         <v>2841</v>
@@ -24549,7 +24538,7 @@
         <v>2844</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>3979</v>
+        <v>3955</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>2845</v>
@@ -24567,7 +24556,7 @@
         <v>2848</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>3980</v>
+        <v>3956</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>2849</v>
@@ -24585,7 +24574,7 @@
         <v>2852</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>3981</v>
+        <v>3957</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>2853</v>
@@ -24603,7 +24592,7 @@
         <v>2856</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>3982</v>
+        <v>3958</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>2857</v>
@@ -24621,7 +24610,7 @@
         <v>2860</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>3983</v>
+        <v>3959</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>2861</v>
@@ -24639,7 +24628,7 @@
         <v>2864</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>3984</v>
+        <v>3960</v>
       </c>
       <c r="D655" s="1" t="s">
         <v>2865</v>
@@ -24657,7 +24646,7 @@
         <v>2868</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>3985</v>
+        <v>3961</v>
       </c>
       <c r="D656" s="1" t="s">
         <v>2869</v>
@@ -24675,10 +24664,10 @@
         <v>2872</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>3986</v>
+        <v>3962</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>3957</v>
+        <v>3933</v>
       </c>
       <c r="E657" s="2"/>
       <c r="F657" s="1" t="s">
@@ -24693,7 +24682,7 @@
         <v>2875</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>3987</v>
+        <v>3963</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>2876</v>
@@ -24711,10 +24700,10 @@
         <v>2879</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>3988</v>
+        <v>3964</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>3956</v>
+        <v>3932</v>
       </c>
       <c r="E659" s="2"/>
       <c r="F659" s="1" t="s">
@@ -24729,7 +24718,7 @@
         <v>2882</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>3989</v>
+        <v>3965</v>
       </c>
       <c r="D660" s="1" t="s">
         <v>2883</v>
@@ -24747,7 +24736,7 @@
         <v>2886</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>3990</v>
+        <v>3966</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>2887</v>
@@ -24765,7 +24754,7 @@
         <v>2890</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>3991</v>
+        <v>3967</v>
       </c>
       <c r="D662" s="1" t="s">
         <v>2891</v>
@@ -24783,7 +24772,7 @@
         <v>2894</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>3992</v>
+        <v>3968</v>
       </c>
       <c r="D663" s="1" t="s">
         <v>2895</v>
@@ -24801,7 +24790,7 @@
         <v>2898</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>3993</v>
+        <v>3969</v>
       </c>
       <c r="D664" s="1" t="s">
         <v>2899</v>
@@ -24819,7 +24808,7 @@
         <v>2902</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>3994</v>
+        <v>3970</v>
       </c>
       <c r="D665" s="1" t="s">
         <v>2903</v>
@@ -24837,7 +24826,7 @@
         <v>2906</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>3995</v>
+        <v>3971</v>
       </c>
       <c r="D666" s="1" t="s">
         <v>2907</v>
@@ -24855,7 +24844,7 @@
         <v>2910</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>3996</v>
+        <v>3972</v>
       </c>
       <c r="D667" s="1" t="s">
         <v>2911</v>
@@ -24873,7 +24862,7 @@
         <v>2914</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>3997</v>
+        <v>3973</v>
       </c>
       <c r="D668" s="1" t="s">
         <v>2915</v>
@@ -24891,7 +24880,7 @@
         <v>2918</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>3998</v>
+        <v>3974</v>
       </c>
       <c r="D669" s="1" t="s">
         <v>2919</v>
@@ -24909,7 +24898,7 @@
         <v>2922</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>3999</v>
+        <v>3975</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>2923</v>
@@ -24927,10 +24916,10 @@
         <v>2926</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>4000</v>
+        <v>3976</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>3947</v>
+        <v>3923</v>
       </c>
       <c r="E671" s="2"/>
       <c r="F671" s="1" t="s">
@@ -24945,10 +24934,10 @@
         <v>2929</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>4001</v>
+        <v>3977</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>3948</v>
+        <v>3924</v>
       </c>
       <c r="E672" s="2"/>
       <c r="F672" s="1" t="s">
@@ -24963,7 +24952,7 @@
         <v>2932</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>4002</v>
+        <v>3978</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>2933</v>
@@ -24981,7 +24970,7 @@
         <v>2936</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>4003</v>
+        <v>3979</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>2937</v>
@@ -24999,7 +24988,7 @@
         <v>2940</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>4004</v>
+        <v>3980</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>2941</v>
@@ -25017,7 +25006,7 @@
         <v>2944</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>4005</v>
+        <v>3981</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>2945</v>
@@ -25035,7 +25024,7 @@
         <v>2948</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>4006</v>
+        <v>3982</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>2949</v>
@@ -25053,7 +25042,7 @@
         <v>2952</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>4007</v>
+        <v>3983</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>2953</v>
@@ -25071,7 +25060,7 @@
         <v>2956</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>4008</v>
+        <v>3984</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>2957</v>
@@ -25089,7 +25078,7 @@
         <v>2960</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>4009</v>
+        <v>3985</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" s="1" t="s">
@@ -25107,7 +25096,7 @@
         <v>2963</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>4010</v>
+        <v>3986</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" s="1" t="s">
@@ -25125,7 +25114,7 @@
         <v>2965</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>4011</v>
+        <v>3987</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" s="1" t="s">
@@ -25143,7 +25132,7 @@
         <v>2967</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>4012</v>
+        <v>3988</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" s="1" t="s">
@@ -25161,7 +25150,7 @@
         <v>2969</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>4013</v>
+        <v>3989</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" s="1" t="s">
@@ -25179,7 +25168,7 @@
         <v>2971</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>4014</v>
+        <v>3990</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" s="1" t="s">
@@ -25197,7 +25186,7 @@
         <v>2973</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>4015</v>
+        <v>3991</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" s="1" t="s">
@@ -25215,7 +25204,7 @@
         <v>2975</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>4016</v>
+        <v>3992</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" s="1" t="s">
@@ -25233,7 +25222,7 @@
         <v>2977</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>4017</v>
+        <v>3993</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" s="1" t="s">
@@ -25251,7 +25240,7 @@
         <v>2979</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>4018</v>
+        <v>3994</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" s="1" t="s">
@@ -25269,7 +25258,7 @@
         <v>2981</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>4019</v>
+        <v>3995</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" s="1" t="s">
@@ -25287,7 +25276,7 @@
         <v>2983</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>4020</v>
+        <v>3996</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" s="1" t="s">
@@ -25305,7 +25294,7 @@
         <v>2985</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>4021</v>
+        <v>3997</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" s="1" t="s">
@@ -25323,7 +25312,7 @@
         <v>2987</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>4022</v>
+        <v>3998</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" s="1" t="s">
@@ -25341,7 +25330,7 @@
         <v>2989</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>4023</v>
+        <v>3999</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" s="1" t="s">
@@ -25359,7 +25348,7 @@
         <v>2991</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>4024</v>
+        <v>4000</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" s="1" t="s">
@@ -25377,7 +25366,7 @@
         <v>2993</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>4025</v>
+        <v>4001</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" s="1" t="s">
@@ -25395,7 +25384,7 @@
         <v>2995</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>4026</v>
+        <v>4002</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" s="1" t="s">
@@ -25413,7 +25402,7 @@
         <v>2997</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>4027</v>
+        <v>4003</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" s="1" t="s">
@@ -25431,7 +25420,7 @@
         <v>2999</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>4028</v>
+        <v>4004</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" s="1" t="s">
@@ -25449,7 +25438,7 @@
         <v>3001</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>4029</v>
+        <v>4005</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" s="1" t="s">
@@ -25467,7 +25456,7 @@
         <v>3003</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>4030</v>
+        <v>4006</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" s="1" t="s">
@@ -25485,7 +25474,7 @@
         <v>3005</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>4031</v>
+        <v>4007</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" s="1" t="s">
@@ -25503,7 +25492,7 @@
         <v>3007</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>4032</v>
+        <v>4008</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" s="1" t="s">
@@ -25521,7 +25510,7 @@
         <v>3009</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>4033</v>
+        <v>4009</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" s="1" t="s">
@@ -25539,7 +25528,7 @@
         <v>3011</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>4034</v>
+        <v>4010</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" s="1" t="s">
@@ -25557,7 +25546,7 @@
         <v>3013</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>4035</v>
+        <v>4011</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" s="1" t="s">
@@ -25575,7 +25564,7 @@
         <v>3015</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>4036</v>
+        <v>4012</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" s="1" t="s">
@@ -25593,7 +25582,7 @@
         <v>3017</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>4037</v>
+        <v>4013</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" s="1" t="s">
@@ -25611,7 +25600,7 @@
         <v>3019</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>4038</v>
+        <v>4014</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" s="1" t="s">
@@ -25629,7 +25618,7 @@
         <v>3021</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>4039</v>
+        <v>4015</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" s="1" t="s">
@@ -25647,7 +25636,7 @@
         <v>3023</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>4040</v>
+        <v>4016</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" s="1" t="s">
@@ -25665,7 +25654,7 @@
         <v>3025</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>4041</v>
+        <v>4017</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" s="1" t="s">
@@ -25683,7 +25672,7 @@
         <v>3027</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>4042</v>
+        <v>4018</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" s="1" t="s">
@@ -25701,7 +25690,7 @@
         <v>3029</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>4043</v>
+        <v>4019</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" s="1" t="s">
@@ -25719,7 +25708,7 @@
         <v>3031</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>4044</v>
+        <v>4020</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" s="1" t="s">
@@ -25737,7 +25726,7 @@
         <v>3033</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>4045</v>
+        <v>4021</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" s="1" t="s">
@@ -25755,7 +25744,7 @@
         <v>3035</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>4046</v>
+        <v>4022</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" s="1" t="s">
@@ -25773,7 +25762,7 @@
         <v>3037</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>4047</v>
+        <v>4023</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" s="1" t="s">
@@ -25791,7 +25780,7 @@
         <v>3039</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>4048</v>
+        <v>4024</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" s="1" t="s">
@@ -25809,7 +25798,7 @@
         <v>3041</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>4049</v>
+        <v>4025</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" s="1" t="s">
@@ -25827,7 +25816,7 @@
         <v>3043</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>4050</v>
+        <v>4026</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" s="1" t="s">
@@ -25845,7 +25834,7 @@
         <v>3045</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>4051</v>
+        <v>4027</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" s="1" t="s">
@@ -25863,7 +25852,7 @@
         <v>3047</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>4052</v>
+        <v>4028</v>
       </c>
       <c r="D723" s="2"/>
       <c r="E723" s="1" t="s">
@@ -25881,7 +25870,7 @@
         <v>3049</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>4053</v>
+        <v>4029</v>
       </c>
       <c r="D724" s="2"/>
       <c r="E724" s="1" t="s">
@@ -25899,7 +25888,7 @@
         <v>3051</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>4054</v>
+        <v>4030</v>
       </c>
       <c r="D725" s="2"/>
       <c r="E725" s="1" t="s">
@@ -25917,7 +25906,7 @@
         <v>3053</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>4055</v>
+        <v>4031</v>
       </c>
       <c r="D726" s="2"/>
       <c r="E726" s="1" t="s">
@@ -25935,7 +25924,7 @@
         <v>3055</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>4056</v>
+        <v>4032</v>
       </c>
       <c r="D727" s="2"/>
       <c r="E727" s="1" t="s">
@@ -25953,7 +25942,7 @@
         <v>3057</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>4057</v>
+        <v>4033</v>
       </c>
       <c r="D728" s="2"/>
       <c r="E728" s="1" t="s">
@@ -25971,7 +25960,7 @@
         <v>3059</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>4058</v>
+        <v>4034</v>
       </c>
       <c r="D729" s="2"/>
       <c r="E729" s="1" t="s">
@@ -25989,7 +25978,7 @@
         <v>3061</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>4059</v>
+        <v>4035</v>
       </c>
       <c r="D730" s="1" t="s">
         <v>3062</v>
@@ -26007,10 +25996,10 @@
         <v>3065</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>4060</v>
+        <v>4036</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>3955</v>
+        <v>3931</v>
       </c>
       <c r="E731" s="2"/>
       <c r="F731" s="1" t="s">
@@ -26025,7 +26014,7 @@
         <v>3068</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>4061</v>
+        <v>4037</v>
       </c>
       <c r="D732" s="1" t="s">
         <v>3069</v>
@@ -26043,7 +26032,7 @@
         <v>3072</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>4062</v>
+        <v>4038</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>3073</v>
@@ -26061,7 +26050,7 @@
         <v>3076</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>4063</v>
+        <v>4039</v>
       </c>
       <c r="D734" s="1" t="s">
         <v>3077</v>
@@ -26079,7 +26068,7 @@
         <v>3080</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>4064</v>
+        <v>4040</v>
       </c>
       <c r="D735" s="1" t="s">
         <v>3081</v>
@@ -26097,7 +26086,7 @@
         <v>3084</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>4065</v>
+        <v>4041</v>
       </c>
       <c r="D736" s="1" t="s">
         <v>3085</v>
@@ -26115,10 +26104,10 @@
         <v>3088</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>4066</v>
+        <v>4042</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>3954</v>
+        <v>3930</v>
       </c>
       <c r="E737" s="2"/>
       <c r="F737" s="1" t="s">
@@ -26802,7 +26791,7 @@
         <v>3277</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>3953</v>
+        <v>3929</v>
       </c>
       <c r="E775" s="2"/>
       <c r="F775" s="1" t="s">
@@ -27270,11 +27259,11 @@
         <v>3399</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>3949</v>
+        <v>3925</v>
       </c>
       <c r="E801" s="2"/>
       <c r="F801" s="1" t="s">
-        <v>3950</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
@@ -27288,11 +27277,11 @@
         <v>3402</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>3951</v>
+        <v>3927</v>
       </c>
       <c r="E802" s="2"/>
       <c r="F802" s="1" t="s">
-        <v>3952</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
